--- a/stripped/S10000.mes.bin.xlsx
+++ b/stripped/S10000.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89225830-50CE-4D45-BB91-839653AC39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8B241-DD67-46AF-AB21-52940DBA5ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10000.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S10000.mes.bin.xlsx
+++ b/stripped/S10000.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8B241-DD67-46AF-AB21-52940DBA5ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60AB267-23C7-4989-8250-FC20190C91C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10000.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>Status</t>
   </si>
@@ -248,6 +248,9 @@
     <t>109</t>
   </si>
   <si>
+    <t>^You were taking a while, so I came to get you.\nIs verything okay?^</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
@@ -287,7 +290,7 @@
     <t>129</t>
   </si>
   <si>
-    <t>^Yeah. Touya Fujii-san.^</t>
+    <t>^Yeah. Touya Fujii.^</t>
   </si>
   <si>
     <t>131</t>
@@ -369,6 +372,9 @@
   </si>
   <si>
     <t>175</t>
+  </si>
+  <si>
+    <t>With that, Yuki leaves, following Yayoi-san.</t>
   </si>
   <si>
     <t>177</t>
@@ -784,7 +790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1684,7 +1692,9 @@
         <v>64</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -1693,7 +1703,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
@@ -1701,7 +1711,7 @@
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -1711,7 +1721,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1725,7 +1735,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
@@ -1741,7 +1751,7 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1755,7 +1765,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
@@ -1763,7 +1773,7 @@
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -1773,7 +1783,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1787,7 +1797,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
@@ -1803,7 +1813,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -1819,7 +1829,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
@@ -1827,7 +1837,7 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -1837,7 +1847,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -1845,7 +1855,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -1855,13 +1865,13 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -1871,7 +1881,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
@@ -1887,7 +1897,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1901,7 +1911,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -1917,7 +1927,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
@@ -1933,7 +1943,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -1949,13 +1959,13 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -1965,7 +1975,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1979,7 +1989,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
@@ -1995,7 +2005,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2009,7 +2019,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
@@ -2025,7 +2035,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
@@ -2033,7 +2043,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -2043,7 +2053,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
@@ -2059,7 +2069,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2073,7 +2083,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
@@ -2089,7 +2099,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -2105,7 +2115,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2119,7 +2129,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
@@ -2135,7 +2145,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
@@ -2151,7 +2161,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
@@ -2159,7 +2169,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -2169,7 +2179,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
@@ -2185,7 +2195,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
@@ -2201,12 +2211,14 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -2215,7 +2227,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
